--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Оплата членского взноса 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2014/2015</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,14 +172,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,109 +501,110 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>450</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>10154.27</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>43232</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>43323</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>43323</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>2654.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>10010.11</v>
-      </c>
-      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>43639</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
         <v>10010.11</v>
       </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
+        <v>43639</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>10010.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>43826</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплата членского взноса 2014/2015</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,6 +182,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +493,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,9 +605,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11475</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,6 +615,18 @@
         <v>11475</v>
       </c>
       <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>44084</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>11475</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="A12" sqref="A12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,6 +630,48 @@
       <c r="D11" s="8">
         <v>11475</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12236.94</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -496,7 +496,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D17"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,10 +644,16 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>12236.94</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>

--- a/sputnik/personal/uch/uch13.xlsx
+++ b/sputnik/personal/uch/uch13.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,17 +168,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -186,6 +179,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,7 +499,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,10 +513,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -524,160 +527,160 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="11">
         <v>450</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>10154.27</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>43232</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>7500</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>43323</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>2654.27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>43586</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="14">
         <v>10010.11</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>43639</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <v>10010.11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>43826</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>43952</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="14">
         <v>11475</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>44084</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
         <v>11475</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>44317</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="14">
         <v>12236.94</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>44446</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
         <v>12236.94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
